--- a/data/trans_camb/P17_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P17_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-7,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>-7,43</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-5,02</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-3,22</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,86</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 10,12</t>
+          <t>-8,76; 11,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 6,79</t>
+          <t>-3,2; 14,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 6,88</t>
+          <t>-6,46; 11,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 10,04</t>
+          <t>-5,18; 15,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,48; -0,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 12,24</t>
+          <t>-18,07; 3,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 1,96</t>
+          <t>-13,04; 6,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 1,69</t>
+          <t>-11,08; 8,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 1,99</t>
+          <t>-9,73; 13,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 6,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 3,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-10,58; 4,25</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-5,95; 8,61</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 7,28</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 13,13</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,34%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>45,54%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>44,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-24,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>-25,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,96%</t>
+          <t>-8,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-20,65%</t>
+          <t>-2,77%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-11,09%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-8,45%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-15,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>18,05%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 80,86</t>
+          <t>-51,57; 141,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 51,54</t>
+          <t>-18,32; 201,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 51,4</t>
+          <t>-32,59; 138,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 72,86</t>
+          <t>-29,37; 200,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,74; 0,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,13; 6,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,03; 46,11</t>
+          <t>-51,66; 18,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,09; 7,48</t>
+          <t>-36,36; 32,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 7,8</t>
+          <t>-30,72; 35,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-26,82; 9,65</t>
+          <t>-28,12; 59,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 31,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 15,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-41,89; 27,69</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-21,73; 50,59</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-21,71; 41,07</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-18,07; 82,17</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,93</t>
+          <t>-8,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-3,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,69</t>
+          <t>-10,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-8,73</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,03</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-7,25</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-4,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-9,6</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-7,61</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-5,5</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,34; -3,45</t>
+          <t>-17,24; -3,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,05; -1,01</t>
+          <t>-14,58; -0,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 2,45</t>
+          <t>-12,5; 1,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 0,58</t>
+          <t>-7,59; 9,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,08; -6,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,02; -5,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,45; -1,75</t>
+          <t>-15,77; -3,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 3,79</t>
+          <t>-14,45; -2,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,9; -6,39</t>
+          <t>-12,62; -1,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-10,4; -4,53</t>
+          <t>-10,8; 1,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-7,5; -1,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 0,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-14,48; -5,18</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-12,38; -3,56</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-10,41; -1,54</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-7,39; 3,21</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-52,31%</t>
+          <t>-58,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-34,63%</t>
+          <t>-39,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-13,98%</t>
+          <t>-22,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,68%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-47,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-28,56%</t>
+          <t>-41,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,19%</t>
+          <t>-36,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-49,24%</t>
+          <t>-28,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-39,52%</t>
+          <t>-18,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-23,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-15,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-48,18%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-38,22%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-27,59%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-11,81%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,56; -30,64</t>
+          <t>-79,47; -28,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,07; -6,51</t>
+          <t>-67,13; -4,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 23,52</t>
+          <t>-55,73; 15,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,96; 6,03</t>
+          <t>-41,0; 88,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,83; -31,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,02; -26,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-41,2; -8,53</t>
+          <t>-59,14; -16,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 18,37</t>
+          <t>-52,18; -14,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-60,15; -37,38</t>
+          <t>-45,37; -4,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-50,29; -26,09</t>
+          <t>-39,69; 8,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-37,52; -6,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 2,99</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-62,37; -28,06</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-52,18; -19,86</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-44,6; -9,18</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-33,25; 19,27</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,0</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-8,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-6,13</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>-5,12</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>-6,6</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-7,08</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-4,02</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-2,14</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-1,87</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 1,22</t>
+          <t>-7,97; 1,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 0,9</t>
+          <t>-6,61; 2,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 2,84</t>
+          <t>-3,39; 5,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 6,33</t>
+          <t>-2,24; 11,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,64; -4,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 0,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 2,39</t>
+          <t>-16,43; -4,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 4,61</t>
+          <t>-12,33; -0,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -2,76</t>
+          <t>-11,52; 0,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 0,0</t>
+          <t>-13,26; -0,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 3,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-11,16; -3,2</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-8,22; -0,24</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 1,38</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 2,7</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-38,26%</t>
+          <t>-38,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-29,92%</t>
+          <t>-18,26%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,14%</t>
+          <t>21,7%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>50,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-50,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-12,67%</t>
+          <t>-53,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-8,77%</t>
+          <t>-30,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-45,55%</t>
+          <t>-25,87%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-23,43%</t>
+          <t>-33,36%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-50,2%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-28,5%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-15,15%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-13,23%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,33; 21,19</t>
+          <t>-76,29; 35,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-57,63; 19,36</t>
+          <t>-60,56; 62,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-46,9; 34,99</t>
+          <t>-32,38; 123,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,22; 74,51</t>
+          <t>-30,09; 205,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-67,74; -30,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,78; 6,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 16,85</t>
+          <t>-70,58; -27,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,86; 33,57</t>
+          <t>-49,73; -0,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-62,04; -24,49</t>
+          <t>-46,8; 2,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 0,25</t>
+          <t>-55,28; -2,84</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-31,07; 12,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 32,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-65,93; -25,02</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-48,97; -2,05</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-36,05; 12,71</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-37,5; 23,22</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,16</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-5,3</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-9,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,28</t>
+          <t>-9,36</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-6,95</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>-1,08</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-6,36</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-5,88</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-5,03</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,71; -1,77</t>
+          <t>-7,67; 2,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,99; -0,51</t>
+          <t>-8,6; 0,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 1,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 2,78</t>
+          <t>-9,07; -1,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-12,29; -6,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -3,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 0,55</t>
+          <t>-13,53; -5,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 1,88</t>
+          <t>-12,23; -1,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,45; -5,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-6,66; -2,51</t>
+          <t>-9,62; 1,66</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 0,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; -2,53</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-9,2; -2,49</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; -1,28</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-39,54%</t>
+          <t>-24,7%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-22,67%</t>
+          <t>-32,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>-38,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-41,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-28,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-14,24%</t>
+          <t>-40,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-7,39%</t>
+          <t>-30,33%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-40,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-26,22%</t>
+          <t>-18,59%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-12,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>-5,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-34,88%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-32,26%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-27,59%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-54,02; -12,34</t>
+          <t>-51,32; 20,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,15; -4,18</t>
+          <t>-57,35; 2,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 14,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 23,81</t>
+          <t>-60,06; -12,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-51,09; -28,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,44; -16,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 2,65</t>
+          <t>-54,9; -24,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 8,73</t>
+          <t>-49,91; -7,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-49,29; -30,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-34,48; -15,46</t>
+          <t>-38,48; 8,35</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 1,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 7,48</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-47,15; -14,74</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-47,31; -14,16</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-42,66; -6,53</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-4,72</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-9,44</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-6,14</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-4,05</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,58</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-7,12</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-4,69</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-2,65</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-7,55; -1,86</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; -0,5</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,27; 1,54</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 3,21</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-12,25; -6,6</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,96; -3,26</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; -1,33</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; 0,1</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; -4,92</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-6,73; -2,6</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; -0,49</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 0,69</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-36,14%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-24,14%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-8,74%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-3,29%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-40,85%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-26,57%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-17,54%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-15,48%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-39,14%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-25,78%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-14,54%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-11,17%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-51,43; -15,83</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-39,99; -4,39</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-28,88; 13,16</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-25,96; 26,37</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-50,41; -30,42</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-36,57; -15,12</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-28,41; -6,1</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-26,92; 0,44</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-47,54; -28,18</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-35,02; -15,2</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-24,1; -3,16</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-22,19; 3,92</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
